--- a/examples/SimpleFe/model_parameter_template.SimpleFe.xlsx
+++ b/examples/SimpleFe/model_parameter_template.SimpleFe.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\SimpleFe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="463" windowWidth="28037" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>class</t>
   </si>
@@ -128,9 +129,6 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>porosity as a function of depth</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -158,7 +156,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>bioburbation coefficient as a function of depth</t>
+    <t>bioturbation coefficient</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -170,7 +168,7 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>bioirrigation coefficient as a function of depth</t>
+    <t>bioirrigation coefficient</t>
   </si>
   <si>
     <t>speciation</t>
@@ -200,19 +198,19 @@
     <t>mmol cm^-2 yr^-1</t>
   </si>
   <si>
-    <t>Flux of POC at the  TOP of sediment column</t>
+    <t>Flux of POC at the  TOP</t>
   </si>
   <si>
     <t>FFeOOH0</t>
   </si>
   <si>
-    <t>Flux of FeOOH at the  TOP of sediment column</t>
+    <t>Flux of FeOOH at the  TOP</t>
   </si>
   <si>
     <t>FFeS0</t>
   </si>
   <si>
-    <t>Flux of FeS at the  TOP of sediment column</t>
+    <t>Flux of FeS at the  TOP</t>
   </si>
   <si>
     <t>SO4BW</t>
@@ -227,13 +225,13 @@
     <t>TFe_dis0</t>
   </si>
   <si>
-    <t>Concentration of TFe_dis at the TOP of sediment column</t>
+    <t>Concentration of TFe_dis at the TOP</t>
   </si>
   <si>
     <t>FTFe_ads0</t>
   </si>
   <si>
-    <t>Flux of TFe_ads at the  TOP of sediment column</t>
+    <t>Flux of TFe_ads at the  TOP</t>
   </si>
   <si>
     <t>pH0</t>
@@ -242,19 +240,19 @@
     <t>free pH scale</t>
   </si>
   <si>
-    <t>pH at the TOP of sediment column</t>
+    <t>pH at the TOP</t>
   </si>
   <si>
     <t>TCO20</t>
   </si>
   <si>
-    <t>Concentration of TCO2 at the TOP of sediment column</t>
+    <t>Concentration of TCO2 at the TOP</t>
   </si>
   <si>
     <t>TH2S0</t>
   </si>
   <si>
-    <t>Concentration of TH2S at the TOP of sediment column</t>
+    <t>Concentration of TH2S at the TOP</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -296,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -641,16 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -683,6 +679,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2"/>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -693,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -703,6 +700,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3"/>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -713,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -723,6 +721,7 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>16</v>
       </c>
@@ -733,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -743,6 +742,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -763,6 +763,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6"/>
       <c r="E6" t="s">
         <v>23</v>
       </c>
@@ -773,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -783,6 +784,7 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -793,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -803,6 +805,7 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>23</v>
       </c>
@@ -813,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -823,17 +826,18 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -841,409 +845,439 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11"/>
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>40</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>44</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17"/>
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20"/>
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23"/>
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>84</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
         <v>85</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>86</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
         <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
       </c>
       <c r="G31">
         <v>1</v>
